--- a/m1/u1/ejercicios/20191030/Funciones de Texto/PracticaFunciones.xlsx
+++ b/m1/u1/ejercicios/20191030/Funciones de Texto/PracticaFunciones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Funciones de Texto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndresRamos\Documents\poo\m1\u1\ejercicios\20191030\Funciones de Texto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -219,10 +219,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="00"/>
     <numFmt numFmtId="165" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -232,10 +231,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -268,6 +269,7 @@
       <sz val="10"/>
       <color indexed="60"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -369,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,14 +400,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Euro" xfId="1"/>
@@ -714,29 +718,30 @@
   <sheetPr>
     <tabColor indexed="14"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
@@ -751,125 +756,180 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="22">
         <v>26795</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="21">
+        <f t="shared" ref="D5:D10" ca="1" si="0">IFERROR(DATEDIF(C5,TODAY(),"Y"),"No es posible calcular")</f>
+        <v>46</v>
+      </c>
+      <c r="E5" s="15">
+        <f>IFERROR(DATEDIF(C5,"18/10/2012","Y"),"No es posible calcular")</f>
+        <v>39</v>
+      </c>
+      <c r="G5" s="23">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="22">
         <v>23642</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" ref="E6:E10" si="1">IFERROR(DATEDIF(C6,"18/10/2012","Y"),"No es posible calcular")</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="22">
         <v>30290</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="22">
         <v>68378</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No es posible calcular</v>
+      </c>
+      <c r="E8" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>No es posible calcular</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No es posible calcular</v>
+      </c>
+      <c r="E9" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>No es posible calcular</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="22">
         <v>35111</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:7" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="2:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19">
+        <f ca="1">ABS(D5-D6)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="2:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19">
+        <f>DATEDIF(C10,"25/12/2009","Y")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="19" spans="2:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19" t="str">
+        <f ca="1">IFERROR(D9-D8,"No es posible calcular")</f>
+        <v>No es posible calcular</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <v>43750</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20" spans="2:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>43824</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="21" spans="2:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -964,18 +1024,18 @@
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="8" t="s">
@@ -996,8 +1056,8 @@
       <c r="H10" s="5"/>
       <c r="I10" s="7"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="21"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="9"/>
@@ -1016,8 +1076,8 @@
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="21"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="9"/>
@@ -1036,8 +1096,8 @@
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="21"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="9"/>
@@ -1056,8 +1116,8 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="21"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
@@ -1076,8 +1136,8 @@
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="21"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="9"/>
@@ -1096,8 +1156,8 @@
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="21"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
@@ -1116,8 +1176,8 @@
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="21"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="9"/>
@@ -1136,8 +1196,8 @@
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="21"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
@@ -1156,8 +1216,8 @@
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="21"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="9"/>
@@ -1176,8 +1236,8 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="21"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="F30" t="str">
